--- a/config/testcases/Report_BE.STW01SortTheWords(Clone).xlsx
+++ b/config/testcases/Report_BE.STW01SortTheWords(Clone).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -190,7 +190,10 @@
     <t>Wait for act scence</t>
   </si>
   <si>
-    <t>SelectActivity//Button(Clone)[0]30</t>
+    <t>SelectActivity//Button(Clone)[0],30</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>SelectActivity//Button(Clone)[$.index],Button,onClick()</t>
@@ -202,16 +205,16 @@
     <t>checkAudioAnswer</t>
   </si>
   <si>
+    <t>Đợi game kết thúc</t>
+  </si>
+  <si>
+    <t>waitForObjectNotPresent</t>
+  </si>
+  <si>
     <t>Click if exit</t>
   </si>
   <si>
     <t>PlayGame/ButtonClose,Button,onClick()</t>
-  </si>
-  <si>
-    <t>Đợi game kết thúc</t>
-  </si>
-  <si>
-    <t>waitForObjectNotPresent</t>
   </si>
   <si>
     <t>Đợi màn hình chọn act xuất hiện</t>
@@ -1330,7 +1333,7 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
@@ -1372,7 +1375,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="8"/>
@@ -1408,11 +1411,11 @@
         <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="9"/>
@@ -1442,16 +1445,20 @@
         <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="2"/>
@@ -1479,16 +1486,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10" t="s">
@@ -1519,16 +1526,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10" t="s">
@@ -1562,13 +1569,13 @@
         <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
@@ -1602,13 +1609,13 @@
         <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10" t="s">
@@ -1678,13 +1685,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
